--- a/src/main/resources/网站测试数据.xlsx
+++ b/src/main/resources/网站测试数据.xlsx
@@ -9,7 +9,20 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -25,7 +38,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -995,13 +1008,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="22.8" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="22.8" outlineLevelRow="6" outlineLevelCol="3"/>
   <cols>
     <col min="4" max="4" width="10.7760416666667" style="1"/>
   </cols>
@@ -1031,7 +1044,7 @@
         <v>45266</v>
       </c>
       <c r="B3" s="4">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1039,7 +1052,31 @@
         <v>45267</v>
       </c>
       <c r="B4" s="4">
-        <v>30</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="6">
+        <v>45268</v>
+      </c>
+      <c r="B5" s="4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="6">
+        <v>45269</v>
+      </c>
+      <c r="B6" s="4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="6">
+        <v>45270</v>
+      </c>
+      <c r="B7" s="4">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
